--- a/Part_List.xlsx
+++ b/Part_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICAP\Desktop\Matthew Porter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD4AA00-378B-45B0-84CE-DF019E1AA7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A9C277-1D51-4945-9199-CEA4BF82CF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F56853FC-A021-4F73-82B8-45716700CB54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17340" xr2:uid="{F56853FC-A021-4F73-82B8-45716700CB54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Aluminum</t>
   </si>
   <si>
-    <t>Hollow Tubing</t>
-  </si>
-  <si>
     <t>Solidworks Name</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>Driving Dimension</t>
+  </si>
+  <si>
+    <t>Hollow Tubing Needed</t>
+  </si>
+  <si>
+    <t>PMT Measurement is including the black tape</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,10 +531,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -586,6 +598,8 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,9 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,10 +629,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -947,13 +963,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3B49FB-B725-400E-B05E-91E91B4434E3}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -963,114 +979,114 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="P2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="47"/>
-      <c r="S2" s="56" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="P2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="49"/>
+      <c r="S2" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="58"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
       <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="I4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="M4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>4</v>
-      </c>
       <c r="P4" s="3">
-        <v>22.23</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Q4" s="9">
         <f>$P$4 / 25.4</f>
-        <v>0.87519685039370088</v>
+        <v>0.77165354330708669</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="58">
+        <v>14</v>
+      </c>
+      <c r="C5" s="46">
         <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>1.25</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="47">
         <v>25.4</v>
       </c>
       <c r="F5" s="18">
@@ -1101,15 +1117,15 @@
         <v>12.11</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="44">
         <v>0.65200000000000002</v>
@@ -1149,65 +1165,65 @@
       </c>
       <c r="P6" s="4">
         <f>$Q$6 * 25.4</f>
-        <v>17.399000000000001</v>
+        <v>19.735800000000001</v>
       </c>
       <c r="Q6" s="10">
-        <v>0.68500000000000005</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="35">
-        <v>0.56299999999999994</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D7" s="16">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="35">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="F7" s="16">
-        <v>15.88</v>
+        <v>19.05</v>
       </c>
       <c r="G7" s="15">
         <v>1.81</v>
       </c>
       <c r="H7" s="40">
-        <v>6874</v>
+        <v>4355</v>
       </c>
       <c r="I7" s="12">
-        <v>0.55500000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="J7" s="16">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K7" s="12">
-        <v>14.1</v>
+        <v>15.75</v>
       </c>
       <c r="L7" s="16">
-        <v>15.88</v>
+        <v>19.05</v>
       </c>
       <c r="M7" s="12">
         <v>12</v>
       </c>
       <c r="N7" s="17">
-        <v>5.25</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="36">
-        <v>0.73199999999999998</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="D8" s="25">
         <v>0.875</v>
       </c>
       <c r="E8" s="36">
-        <v>18.600000000000001</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F8" s="25">
         <v>22.23</v>
@@ -1216,16 +1232,16 @@
         <v>1.181</v>
       </c>
       <c r="H8" s="41">
-        <v>12815</v>
+        <v>14532</v>
       </c>
       <c r="I8" s="24">
-        <v>0.68500000000000005</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="J8" s="25">
         <v>0.875</v>
       </c>
       <c r="K8" s="24">
-        <v>17.399999999999999</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="L8" s="25">
         <v>22.23</v>
@@ -1234,12 +1250,12 @@
         <v>12</v>
       </c>
       <c r="N8" s="27">
-        <v>30.26</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="20">
         <v>3.3639999999999999</v>
@@ -1307,13 +1323,16 @@
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1629,7 +1648,8 @@
       <c r="N34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B12:I12"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="H3:N3"/>
@@ -1639,6 +1659,9 @@
   <conditionalFormatting sqref="C5:L9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{046DCDCE-A89D-4304-843A-BBE3713E32C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>